--- a/Resources/1997/Basic_Percentile_1997.xlsx
+++ b/Resources/1997/Basic_Percentile_1997.xlsx
@@ -1384,16 +1384,16 @@
     <t>Tom Gugliotta</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Kevin Garnett</t>
@@ -1414,19 +1414,19 @@
     <t>Derrick Coleman</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
+    <t>Scottie Pippen</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Glenn Robinson</t>
   </si>
   <si>
-    <t>Charles Barkley*</t>
+    <t>Charles Barkley</t>
   </si>
   <si>
     <t>Anfernee Hardaway</t>
@@ -1435,7 +1435,7 @@
     <t>Shawn Kemp</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Christian Laettner</t>
@@ -1456,7 +1456,7 @@
     <t>Eddie Jones</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Horace Grant</t>
@@ -1474,16 +1474,16 @@
     <t>Jerry Stackhouse</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Shareef Abdur-Rahim</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
-  </si>
-  <si>
-    <t>Gary Payton*</t>
+    <t>Jason Kidd</t>
+  </si>
+  <si>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Clifford Robinson</t>
@@ -1501,7 +1501,7 @@
     <t>Rodney Rogers</t>
   </si>
   <si>
-    <t>Dino Radja*</t>
+    <t>Dino Radja</t>
   </si>
   <si>
     <t>Marcus Camby</t>
@@ -1510,7 +1510,7 @@
     <t>Jim Jackson</t>
   </si>
   <si>
-    <t>Arvydas Sabonis*</t>
+    <t>Arvydas Sabonis</t>
   </si>
   <si>
     <t>LaPhonso Ellis</t>
@@ -1528,7 +1528,7 @@
     <t>Antonio McDyess</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Detlef Schrempf</t>
@@ -1540,7 +1540,7 @@
     <t>Nick Anderson</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Rod Strickland</t>
@@ -1588,7 +1588,7 @@
     <t>Olden Polynice</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Bryant Stith</t>
@@ -1612,7 +1612,7 @@
     <t>Todd Day</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Bobby Phills</t>
@@ -1633,7 +1633,7 @@
     <t>Derrick McKey</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Jerome Kersey</t>
@@ -1642,7 +1642,7 @@
     <t>Bryant Reeves</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>Stephon Marbury</t>
@@ -1654,7 +1654,7 @@
     <t>Michael Smith</t>
   </si>
   <si>
-    <t>David Robinson*</t>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Jayson Williams</t>
@@ -1747,7 +1747,7 @@
     <t>Dennis Scott</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Isaiah Rider</t>
@@ -1813,7 +1813,7 @@
     <t>Nate McMillan</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Zan Tabak</t>
@@ -1930,7 +1930,7 @@
     <t>A.C. Green</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Allan Houston</t>
@@ -2131,7 +2131,7 @@
     <t>Ricky Pierce</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Scott Burrell</t>
@@ -2149,7 +2149,7 @@
     <t>Reggie Williams</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Devin Gray</t>
@@ -2545,7 +2545,7 @@
     <t>Rumeal Robinson</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Jeff McInnis</t>
